--- a/src/test/resources/files/NegativeTestData.xlsx
+++ b/src/test/resources/files/NegativeTestData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msezgin\OneDrive - ENDAVA\Desktop\TechnoStudyProject\com.batch11_Cucumber\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F231BAD-D02D-4256-A0DD-99BCBE24C691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754B14F9-E7DE-4778-AC2C-81C4E2AA5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="4200" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="765" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="batch11" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -86,6 +87,27 @@
   </si>
   <si>
     <t>password1!</t>
+  </si>
+  <si>
+    <t>Aliye</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Hamza</t>
+  </si>
+  <si>
+    <t>Tetiana</t>
+  </si>
+  <si>
+    <t>Sahin</t>
+  </si>
+  <si>
+    <t>Polina</t>
+  </si>
+  <si>
+    <t>Khalid</t>
   </si>
 </sst>
 </file>
@@ -455,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -616,4 +638,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C935BB9-48A6-4363-97B6-BC3C39922980}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/files/NegativeTestData.xlsx
+++ b/src/test/resources/files/NegativeTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msezgin\OneDrive - ENDAVA\Desktop\TechnoStudyProject\com.batch11_Cucumber\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754B14F9-E7DE-4778-AC2C-81C4E2AA5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D0EFF9-6B9B-4F31-8565-79E6CB378579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="765" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1065" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,11 +477,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -644,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C935BB9-48A6-4363-97B6-BC3C39922980}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
